--- a/code/LME/parser_beta/data/cb_curr.xlsx
+++ b/code/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +611,310 @@
         <v>75.31189999999999</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.3261</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48.0809</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.1469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>85.8053</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.4848</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>56.2953</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>76.6782</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>71.9778</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>76.0765</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>48.5922</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.1306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.6397</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.6056</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>56.9219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>77.9487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_curr.xlsx
+++ b/code/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,158 @@
         <v>77.9487</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70.33750000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75.6553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47.6537</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>98.9492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84.7919</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.2583</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>55.6248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>76.18049999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_curr.xlsx
+++ b/code/LME/parser_beta/data/cb_curr.xlsx
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>55.006</v>
+        <v>52.5113</v>
       </c>
     </row>
     <row r="9">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>56.2953</v>
+        <v>53.2682</v>
       </c>
     </row>
     <row r="17">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>56.9219</v>
+        <v>53.7028</v>
       </c>
     </row>
     <row r="25">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>55.6248</v>
+        <v>53.0609</v>
       </c>
     </row>
     <row r="33">

--- a/code/LME/parser_beta/data/cb_curr.xlsx
+++ b/code/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,158 @@
         <v>76.18049999999999</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>70.3002</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>75.07850000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>48.711</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.2867</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>84.69070000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15.1735</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>52.6042</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>76.04130000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/cb_curr.xlsx
+++ b/code/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,158 @@
         <v>76.04130000000001</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>69.60939999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>74.5438</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>48.0583</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>84.8747</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>100</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15.051</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" t="n">
+        <v>52.8144</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>75.66240000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
